--- a/500all/speech_level/speeches_CHRG-114hhrg20792.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20792.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Good morning and I want to welcome members of the Seapower and Projection Forces and Readiness Subcommittees to our hearing today.    Before we begin, we just have two logistical matters that I would like to take care of. The first one is I would like to ask unanimous consent that nonsubcommittee members be allowed to participate in today's hearing after all subcommittee members have had an opportunity to ask questions.    Is there any objection?    Without objection, nonsubcommittee members will be recognized at the appropriate time for 5 minutes.    In addition to that, I would like to ask unanimous consent that Admiral Davidson be allowed to make an opening statement on behalf of the Navy and the respective Navy witnesses.    Is there objection?    Without objection, it so ordered.    As I mentioned, we welcome everyone here today to this joint subcommittee on Seapower and Projection Forces and Readiness Subcommittees at our hearing today.    I want to offer a special welcome to our full committee chairman, Mr. Thornberry. As everyone knows, Chairman Thornberry has been the leader of our ongoing efforts to mitigate our military readiness challenges and I want to thank him for his leadership and for being here today to hear about the United States Navy.    This hearing follows a congressional delegation and listening session that members of our committee conducted on Monday aboard Naval Station Norfolk, the aircraft carrier Dwight D. Eisenhower and the destroyer, the USS McFaul.    While in Norfolk we had a chance to meet with a number of Navy sailors, including the witnesses that are testifying before us today.    Today we will have Captain Scott F. Robertson, the commanding officer of the USS Normandy. Captain, thank you for being here.    We have Captain Randy Stearns, the commodore and Strike Fighter for Wing Atlantic. Captain, thank you for joining us.    We have Captain Gregory McRae, the deputy commander of Submarine Squadron 6. And Captain, thank you for joining us.    And Captain Paul Odenthal, commander of the Naval Construction Group 2. Captain, we thank you for joining us today.    I am also particularly delighted to have Admiral Davidson, the commander of the U.S. Fleet Forces Command, who will make an opening statement this morning.    We have a special guest with us here in the audience. That is Captain Robertson's wife, Kelly. Last year Captain Robertson and his crew went away for a whopping 313 days, including their wedding anniversary and likely many other important family events.    Today his duty once again called him away from home on his anniversary, and at least on this anniversary I want to get him out of the doghouse a little bit, and I want to thank Kelly for her service and her support for her husband and to recognize all the sacrifices she and our other Navy spouses and families make for our country.    I am grateful to everyone for being here, but I want to thank the captains in particular for first giving us their perspectives in Norfolk and then coming up to Washington to share them with additional members.    I think it is very important that we hear not just from senior Navy leaders, but from the operators and warfighters like yourselves, who are dealing with readiness challenges firsthand.    When we met with our witnesses down in Norfolk, one of them characterized his current role and responsibility as the commander of a Navy unit as, quote: ``managing scarcity.''    Our sailors do not sign up to manage scarcity. They sign up to defend their families, their homes, their country. They sign up to defend our families, our home, and our country.    Every day our sailors have a duty to defend America. It is time that we as Americans realize we have a duty to defend them. Hopefully, we take a major step in that this morning.    I think that the term is a very good description of the challenges that our men and women in uniform and the civilians that support them are dealing with across the fleet and in the Navy sister services.    While I firmly believe that the United States Navy is still the world's best, I am concerned about shortfalls in force structure and readiness and the trend lines that we can see.    Over the past year we have heard from the Chief of Naval Operations that we are returning to an era of great power competition in which our maritime superiority will be contested by other countries.    We have heard about ship deployments growing from 5\\1/2\\ to as many as 10 months in length.    We have heard about carrier gaps in Asia and the Middle East. We have heard that shortfalls in the number of amphibious ships are driving the Marines to consider deploying aboard foreign ships.    And we have heard that only one in four of our strike fighters is fully mission capable and ready for combat.    And finally, we have received data showing that next year around the world we will only be able to fulfill 56 percent of our commanders' requests for carriers, 54 percent of the requests for amphibious groups, 42 percent of the requests for submarines, and 39 percent of the requests for cruisers and destroyers.    The conclusion that I think we should all be drawing from what we hear is that we are not currently providing our Navy with the resources it needs to do what we ask, at least not without burning out our ships and our planes and our sailors and undermining our long-term readiness.    As members of these subcommittees know, the Navy will always answer the Nation's call. It always has.    If we require it, the Navy can and will run its ships and sailors ragged and send them into battle without all the weapons and training and maintenance they should have.    But we do not want to do that. We want to take care of our men and women in uniform and maintain peace through strength with a Navy that is robust and ready to deter potential aggressors. We never ever want a fair fight.    In our witnesses' prepared statement, it says that we are recovering from our lowest readiness point in many years. As a Congress, we have the responsibility to provide and maintain a Navy, but I believe that the resources we have been allocating to that critical function of government have been woefully inadequate.    Today I hope to hear from both senior Navy leaders and our operators and warfighters what that means for our Navy and for our national security so that our perspectives and insights can guide our decisions in days and years ahead.    With that, I now turn things over to the gentleman from Virginia, the chairman of the Readiness Subcommittee, my good friend, Chairman Wittman, for any opening remarks that he might have.    Rob.    [The prepared statement of Mr. Forbes can be found in the Appendix on page 43.]</t>
   </si>
   <si>
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Well thank you, Mr. Chairman. I appreciate your leadership. Chairman Thornberry, thank you. Ranking Member Courtney and Ranking Member Bordallo, we deeply appreciate all the efforts here.    Gentlemen, thank you. Thanks so much for your leadership and your distinguished service to our Nation and all of the things that you do to make sure that our Navy and our Marine Corps have the things that they need when asked to go into harm's way.    Every service branch we know today is suffering from readiness deficits and we know that those shortfalls in training and equipment have serious consequences for our warfighters.    This hearing will give us the opportunity to hear from the men and women on the ground, in the air, and on the water who deal with the devastating effects of our readiness shortfalls on a daily basis.    If Congress is to address the obstacles that successive cuts in defense spending have posed, we need a clear, unadulterated view of the challenges our forces are facing.    The testimony that you will provide today will give us an invaluable view in that regard.    We are looking into the challenges ahead and these are the ones we see as our fleets dwindle and as our sailors and their families suffer under the strain of less training and longer deployments.    In March, Vice Chief of Naval Operations Admiral Michelle Howard testified before the Readiness Subcommittee that the Navy is still paying down the readiness debt we accrued over the last decade. And to the Senate Armed Services Committee, she said that sequestration is the greatest threat to our future readiness. It has a ripple effect for us throughout the years.    Today our subcommittees would like to hear from you, our Nation's operational leaders, about maintenance, status of our equipment, the operational availability of our ships, aircraft and weapons systems and, perhaps the most importantly, the obstacles you face as you train our sailors to meet the challenges ahead.    Gentlemen I thank you for your service. As a reminder of what we all are faced with, tomorrow at the United States Naval Academy, we will commission over 1,000 new naval officers, both as ensigns in the Navy and as second lieutenants in the Marine Corps. All of us have an obligation, not only for those officers but those that enlist in the Navy and Marine Corps to make sure that we never forget what it takes to provide for them the proper training, the proper equipment that they need to, as Chairman Forbes said, to have overwhelming superiority so they can fight to victory and come home safe.    That is our unending obligation both here as elected leaders and for you as our military leaders. We all take that challenge seriously and I know, I know and am confident that we will face that challenge. Gentlemen, thank you so much for joining us, and Mr. Chairman, with that I yield back.    [The prepared statement of Mr. Wittman can be found in the Appendix on page 45.]</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman and Mr. Wittman, for holding today's hearing on Navy force structure and readiness and for both of your leadership in terms of what has been a very strong bipartisan effort both in Seapower and Readiness that became part of the House defense authorization bill.    I have a written statement which I am going to enter for the record because we want to hear from the witnesses this morning. In quick summary--this year we have heard a refrain from combatant commanders, whether in the Pacific, whether it is Admiral Harris, General Breedlove, in the North Atlantic--again, really stressing the need for more Navy assets to be deployed. Admiral Harris with no prompting said he needs more ships and submarines, period. General Breedlove said it best, ``We are playing zone defense in terms of what is happening with a resurgent Russian navy.''    This year we came out with a very strong mark in terms of shipbuilding. Ten ships as the chairman noted, the largest boost since the Reagan era in terms of investment in shipbuilding, but as all the witnesses know, that is the long game. You don't build a sub overnight or a carrier overnight or a destroyer. And in the meantime we have got to focus on what is really the focus of today's hearing, which is that we have got to have the operational availability and that means looking at something that sometimes doesn't get quite the banner headlines in the way that maybe shipbuilding does. And that is obviously, making sure that the readiness investments and systems are in place so that when Admiral Harris or General Breedlove is putting out a demand signal that the country can respond to it.    Again, there is no better testimony than the folks that are here at the table this morning. Admiral Davidson it is good to see you again after our visit last year, earlier. Captain Stearns, thank you again for the CODEL [congressional delegation] that we organized. And again, Congress has some skin in this game as well. CRs [continuing resolutions] do not make this problem any easier and I hope we are going to hear from the witnesses about ways that we can help from the legislative branch in terms of making sure there is that horizon, so that, again, these critical needs are gonna be satisfied.    Again, I want to thank both chairmen for organizing this important hearing today. Ask that my written statement be entered for the record and I yield back.    [The prepared statement of Mr. Courtney can be found in the Appendix on page 46.]</t>
   </si>
   <si>
@@ -85,18 +76,12 @@
     <t>412523</t>
   </si>
   <si>
-    <t>Scott H. Peters</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peters. Thank you, Mr. Chairman and thank you, Chairman Wittman as well, and Mr. Courtney. I thank you all for making yourselves available again today.    In July, 2010 these two same subcommittees convened to discuss Navy readiness and 2 years have passed since the USS Chosin, which is now homeported in San Diego undergoing modernization, and the Stout had been deemed unfit for combat operation because of the readiness condition.    In March 2009, the Readiness Subcommittee examined issues the Navy faced in sustaining its surface warships with their expected life and beyond. The Navy reported at that hearing that it had been taking material steps to address gaps in ship maintenance funding and to assess ship material conditions.    So today, over 6 years later, we are continuing to discuss not only the readiness concerns of the Navy's non-nuclear service ships, but also shortfalls in naval aviation, expeditionary forces, and other aspects of readiness. As members of the subcommittees heard on Monday in Norfolk, the Navy now faces readiness concerns with its submarine force as well. A lack of readiness resonates with our ability to keep Americans safe and confront new and dynamic threats across the globe. And as our Navy executes its pivot to the Pacific, while still carrying out operations against the Islamic State, there has never been a more crucial time to have a well-equipped, well-trained force.    These readiness issues of course as Mr. Courtney said did not arise overnight. What the Navy is experiencing now, and what the subcommittees are attempting to fix in the 2017 defense bill, are the consequences of years of high operational tempo experienced by a smaller fleet--again, happy anniversary. I think it is an appropriate time to recognize high operational tempo--and fewer aircraft with experienced sailors and civilian employees to sustain them.    The Navy is grappling with these past decisions that reduce waterfront maintenance organizations and shore infrastructure, process changes to force-wide ship maintenance practices and training processes, and the failed Optimum Manning Initiative in efforts to derive efficiencies instead of pursuing and insisting upon effectiveness.    So the Navy began responding to declining material readiness conditions by increasing manning, improving training, providing enduring technical oversight of maintenance, and reestablishing clear lines of authority and accountability, but the efforts were rendered less effective as Mr. Courtney suggested by the sequestration in 2013.    So when coupled with reductions in skilled personnel at aviation depots and fleet shipyards, severe challenges in obtaining spare parts for legacy systems, late receipt of funds due to the failure of Congress to reach a budget agreement, and high operational tempo required by the complex security environment, to put it lightly, it is not surprising we are dealing with what some call a readiness crisis.    In an era of new and dynamic threats it is our responsibility to navigate these challenges and provide for a 21st century force that has the tools and capabilities to respond to security threats anywhere, anytime, and I welcome the opportunity today to hear from our witnesses about some of the challenges you are facing. And I encourage my colleagues to seriously consider the long-term financial commitments that accompany the readiness solutions that we are proposing in the fiscal year 2017 authorization bill, which will soon go to conference with the Senate.    Thank you again for being here gentlemen, and thank you Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Forbes. Thank you Congressman Peters and Admiral Davidson, you have got a lot on your shoulders. The whole Fleet Forces Command, a lot of men and women that are depending upon you, including the entire country. We appreciate so much all that you do and we appreciate being here today and we would love to turn the floor over to you now for any comments that you can offer to the committee. COMMANDER, USS NORMANDY (CG-60); CAPT GREG McRAE, USN, DEPUTY </t>
   </si>
   <si>
-    <t>Davidson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Davidson. Thank you Chairman Forbes. Chairman Thornberry, Chairman Wittman, Ranking Member Courtney, Ranking Member Peters----</t>
   </si>
   <si>
@@ -209,9 +194,6 @@
   </si>
   <si>
     <t>400341</t>
-  </si>
-  <si>
-    <t>Mike Rogers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Okay. Thank you, thank you all of you for being here.    Mr. Chairman, I yield back.</t>
@@ -676,11 +658,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -700,13 +680,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -728,11 +706,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -752,13 +728,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -780,11 +754,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -804,13 +776,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -832,11 +802,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -858,11 +826,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -884,11 +850,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -910,11 +874,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -936,11 +898,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -962,11 +922,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -988,11 +946,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1014,11 +970,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1040,11 +994,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1066,11 +1018,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1092,11 +1042,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1118,11 +1066,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1144,11 +1090,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1170,11 +1114,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1196,11 +1138,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1222,11 +1162,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1248,11 +1186,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1274,11 +1210,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1298,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1324,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1350,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1376,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1404,11 +1330,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1428,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1456,11 +1378,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1480,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1506,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1532,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1560,11 +1474,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1584,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1610,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1638,11 +1546,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1662,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1690,11 +1594,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1714,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1742,11 +1642,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1766,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1792,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1818,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1846,11 +1738,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1872,11 +1762,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1898,11 +1786,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1924,11 +1810,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1950,11 +1834,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1976,11 +1858,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2002,11 +1882,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2028,11 +1906,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2054,11 +1930,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2080,11 +1954,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2106,11 +1978,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2132,11 +2002,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2158,11 +2026,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2184,11 +2050,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2208,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2234,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2260,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2288,11 +2146,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2314,11 +2170,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2340,11 +2194,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2366,11 +2218,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20792.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20792.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. Good morning and I want to welcome members of the Seapower and Projection Forces and Readiness Subcommittees to our hearing today.    Before we begin, we just have two logistical matters that I would like to take care of. The first one is I would like to ask unanimous consent that nonsubcommittee members be allowed to participate in today's hearing after all subcommittee members have had an opportunity to ask questions.    Is there any objection?    Without objection, nonsubcommittee members will be recognized at the appropriate time for 5 minutes.    In addition to that, I would like to ask unanimous consent that Admiral Davidson be allowed to make an opening statement on behalf of the Navy and the respective Navy witnesses.    Is there objection?    Without objection, it so ordered.    As I mentioned, we welcome everyone here today to this joint subcommittee on Seapower and Projection Forces and Readiness Subcommittees at our hearing today.    I want to offer a special welcome to our full committee chairman, Mr. Thornberry. As everyone knows, Chairman Thornberry has been the leader of our ongoing efforts to mitigate our military readiness challenges and I want to thank him for his leadership and for being here today to hear about the United States Navy.    This hearing follows a congressional delegation and listening session that members of our committee conducted on Monday aboard Naval Station Norfolk, the aircraft carrier Dwight D. Eisenhower and the destroyer, the USS McFaul.    While in Norfolk we had a chance to meet with a number of Navy sailors, including the witnesses that are testifying before us today.    Today we will have Captain Scott F. Robertson, the commanding officer of the USS Normandy. Captain, thank you for being here.    We have Captain Randy Stearns, the commodore and Strike Fighter for Wing Atlantic. Captain, thank you for joining us.    We have Captain Gregory McRae, the deputy commander of Submarine Squadron 6. And Captain, thank you for joining us.    And Captain Paul Odenthal, commander of the Naval Construction Group 2. Captain, we thank you for joining us today.    I am also particularly delighted to have Admiral Davidson, the commander of the U.S. Fleet Forces Command, who will make an opening statement this morning.    We have a special guest with us here in the audience. That is Captain Robertson's wife, Kelly. Last year Captain Robertson and his crew went away for a whopping 313 days, including their wedding anniversary and likely many other important family events.    Today his duty once again called him away from home on his anniversary, and at least on this anniversary I want to get him out of the doghouse a little bit, and I want to thank Kelly for her service and her support for her husband and to recognize all the sacrifices she and our other Navy spouses and families make for our country.    I am grateful to everyone for being here, but I want to thank the captains in particular for first giving us their perspectives in Norfolk and then coming up to Washington to share them with additional members.    I think it is very important that we hear not just from senior Navy leaders, but from the operators and warfighters like yourselves, who are dealing with readiness challenges firsthand.    When we met with our witnesses down in Norfolk, one of them characterized his current role and responsibility as the commander of a Navy unit as, quote: ``managing scarcity.''    Our sailors do not sign up to manage scarcity. They sign up to defend their families, their homes, their country. They sign up to defend our families, our home, and our country.    Every day our sailors have a duty to defend America. It is time that we as Americans realize we have a duty to defend them. Hopefully, we take a major step in that this morning.    I think that the term is a very good description of the challenges that our men and women in uniform and the civilians that support them are dealing with across the fleet and in the Navy sister services.    While I firmly believe that the United States Navy is still the world's best, I am concerned about shortfalls in force structure and readiness and the trend lines that we can see.    Over the past year we have heard from the Chief of Naval Operations that we are returning to an era of great power competition in which our maritime superiority will be contested by other countries.    We have heard about ship deployments growing from 5\\1/2\\ to as many as 10 months in length.    We have heard about carrier gaps in Asia and the Middle East. We have heard that shortfalls in the number of amphibious ships are driving the Marines to consider deploying aboard foreign ships.    And we have heard that only one in four of our strike fighters is fully mission capable and ready for combat.    And finally, we have received data showing that next year around the world we will only be able to fulfill 56 percent of our commanders' requests for carriers, 54 percent of the requests for amphibious groups, 42 percent of the requests for submarines, and 39 percent of the requests for cruisers and destroyers.    The conclusion that I think we should all be drawing from what we hear is that we are not currently providing our Navy with the resources it needs to do what we ask, at least not without burning out our ships and our planes and our sailors and undermining our long-term readiness.    As members of these subcommittees know, the Navy will always answer the Nation's call. It always has.    If we require it, the Navy can and will run its ships and sailors ragged and send them into battle without all the weapons and training and maintenance they should have.    But we do not want to do that. We want to take care of our men and women in uniform and maintain peace through strength with a Navy that is robust and ready to deter potential aggressors. We never ever want a fair fight.    In our witnesses' prepared statement, it says that we are recovering from our lowest readiness point in many years. As a Congress, we have the responsibility to provide and maintain a Navy, but I believe that the resources we have been allocating to that critical function of government have been woefully inadequate.    Today I hope to hear from both senior Navy leaders and our operators and warfighters what that means for our Navy and for our national security so that our perspectives and insights can guide our decisions in days and years ahead.    With that, I now turn things over to the gentleman from Virginia, the chairman of the Readiness Subcommittee, my good friend, Chairman Wittman, for any opening remarks that he might have.    Rob.    [The prepared statement of Mr. Forbes can be found in the Appendix on page 43.]</t>
   </si>
   <si>
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Well thank you, Mr. Chairman. I appreciate your leadership. Chairman Thornberry, thank you. Ranking Member Courtney and Ranking Member Bordallo, we deeply appreciate all the efforts here.    Gentlemen, thank you. Thanks so much for your leadership and your distinguished service to our Nation and all of the things that you do to make sure that our Navy and our Marine Corps have the things that they need when asked to go into harm's way.    Every service branch we know today is suffering from readiness deficits and we know that those shortfalls in training and equipment have serious consequences for our warfighters.    This hearing will give us the opportunity to hear from the men and women on the ground, in the air, and on the water who deal with the devastating effects of our readiness shortfalls on a daily basis.    If Congress is to address the obstacles that successive cuts in defense spending have posed, we need a clear, unadulterated view of the challenges our forces are facing.    The testimony that you will provide today will give us an invaluable view in that regard.    We are looking into the challenges ahead and these are the ones we see as our fleets dwindle and as our sailors and their families suffer under the strain of less training and longer deployments.    In March, Vice Chief of Naval Operations Admiral Michelle Howard testified before the Readiness Subcommittee that the Navy is still paying down the readiness debt we accrued over the last decade. And to the Senate Armed Services Committee, she said that sequestration is the greatest threat to our future readiness. It has a ripple effect for us throughout the years.    Today our subcommittees would like to hear from you, our Nation's operational leaders, about maintenance, status of our equipment, the operational availability of our ships, aircraft and weapons systems and, perhaps the most importantly, the obstacles you face as you train our sailors to meet the challenges ahead.    Gentlemen I thank you for your service. As a reminder of what we all are faced with, tomorrow at the United States Naval Academy, we will commission over 1,000 new naval officers, both as ensigns in the Navy and as second lieutenants in the Marine Corps. All of us have an obligation, not only for those officers but those that enlist in the Navy and Marine Corps to make sure that we never forget what it takes to provide for them the proper training, the proper equipment that they need to, as Chairman Forbes said, to have overwhelming superiority so they can fight to victory and come home safe.    That is our unending obligation both here as elected leaders and for you as our military leaders. We all take that challenge seriously and I know, I know and am confident that we will face that challenge. Gentlemen, thank you so much for joining us, and Mr. Chairman, with that I yield back.    [The prepared statement of Mr. Wittman can be found in the Appendix on page 45.]</t>
   </si>
   <si>
@@ -67,6 +79,12 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman and Mr. Wittman, for holding today's hearing on Navy force structure and readiness and for both of your leadership in terms of what has been a very strong bipartisan effort both in Seapower and Readiness that became part of the House defense authorization bill.    I have a written statement which I am going to enter for the record because we want to hear from the witnesses this morning. In quick summary--this year we have heard a refrain from combatant commanders, whether in the Pacific, whether it is Admiral Harris, General Breedlove, in the North Atlantic--again, really stressing the need for more Navy assets to be deployed. Admiral Harris with no prompting said he needs more ships and submarines, period. General Breedlove said it best, ``We are playing zone defense in terms of what is happening with a resurgent Russian navy.''    This year we came out with a very strong mark in terms of shipbuilding. Ten ships as the chairman noted, the largest boost since the Reagan era in terms of investment in shipbuilding, but as all the witnesses know, that is the long game. You don't build a sub overnight or a carrier overnight or a destroyer. And in the meantime we have got to focus on what is really the focus of today's hearing, which is that we have got to have the operational availability and that means looking at something that sometimes doesn't get quite the banner headlines in the way that maybe shipbuilding does. And that is obviously, making sure that the readiness investments and systems are in place so that when Admiral Harris or General Breedlove is putting out a demand signal that the country can respond to it.    Again, there is no better testimony than the folks that are here at the table this morning. Admiral Davidson it is good to see you again after our visit last year, earlier. Captain Stearns, thank you again for the CODEL [congressional delegation] that we organized. And again, Congress has some skin in this game as well. CRs [continuing resolutions] do not make this problem any easier and I hope we are going to hear from the witnesses about ways that we can help from the legislative branch in terms of making sure there is that horizon, so that, again, these critical needs are gonna be satisfied.    Again, I want to thank both chairmen for organizing this important hearing today. Ask that my written statement be entered for the record and I yield back.    [The prepared statement of Mr. Courtney can be found in the Appendix on page 46.]</t>
   </si>
   <si>
@@ -76,12 +94,21 @@
     <t>412523</t>
   </si>
   <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peters. Thank you, Mr. Chairman and thank you, Chairman Wittman as well, and Mr. Courtney. I thank you all for making yourselves available again today.    In July, 2010 these two same subcommittees convened to discuss Navy readiness and 2 years have passed since the USS Chosin, which is now homeported in San Diego undergoing modernization, and the Stout had been deemed unfit for combat operation because of the readiness condition.    In March 2009, the Readiness Subcommittee examined issues the Navy faced in sustaining its surface warships with their expected life and beyond. The Navy reported at that hearing that it had been taking material steps to address gaps in ship maintenance funding and to assess ship material conditions.    So today, over 6 years later, we are continuing to discuss not only the readiness concerns of the Navy's non-nuclear service ships, but also shortfalls in naval aviation, expeditionary forces, and other aspects of readiness. As members of the subcommittees heard on Monday in Norfolk, the Navy now faces readiness concerns with its submarine force as well. A lack of readiness resonates with our ability to keep Americans safe and confront new and dynamic threats across the globe. And as our Navy executes its pivot to the Pacific, while still carrying out operations against the Islamic State, there has never been a more crucial time to have a well-equipped, well-trained force.    These readiness issues of course as Mr. Courtney said did not arise overnight. What the Navy is experiencing now, and what the subcommittees are attempting to fix in the 2017 defense bill, are the consequences of years of high operational tempo experienced by a smaller fleet--again, happy anniversary. I think it is an appropriate time to recognize high operational tempo--and fewer aircraft with experienced sailors and civilian employees to sustain them.    The Navy is grappling with these past decisions that reduce waterfront maintenance organizations and shore infrastructure, process changes to force-wide ship maintenance practices and training processes, and the failed Optimum Manning Initiative in efforts to derive efficiencies instead of pursuing and insisting upon effectiveness.    So the Navy began responding to declining material readiness conditions by increasing manning, improving training, providing enduring technical oversight of maintenance, and reestablishing clear lines of authority and accountability, but the efforts were rendered less effective as Mr. Courtney suggested by the sequestration in 2013.    So when coupled with reductions in skilled personnel at aviation depots and fleet shipyards, severe challenges in obtaining spare parts for legacy systems, late receipt of funds due to the failure of Congress to reach a budget agreement, and high operational tempo required by the complex security environment, to put it lightly, it is not surprising we are dealing with what some call a readiness crisis.    In an era of new and dynamic threats it is our responsibility to navigate these challenges and provide for a 21st century force that has the tools and capabilities to respond to security threats anywhere, anytime, and I welcome the opportunity today to hear from our witnesses about some of the challenges you are facing. And I encourage my colleagues to seriously consider the long-term financial commitments that accompany the readiness solutions that we are proposing in the fiscal year 2017 authorization bill, which will soon go to conference with the Senate.    Thank you again for being here gentlemen, and thank you Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Forbes. Thank you Congressman Peters and Admiral Davidson, you have got a lot on your shoulders. The whole Fleet Forces Command, a lot of men and women that are depending upon you, including the entire country. We appreciate so much all that you do and we appreciate being here today and we would love to turn the floor over to you now for any comments that you can offer to the committee. COMMANDER, USS NORMANDY (CG-60); CAPT GREG McRAE, USN, DEPUTY </t>
   </si>
   <si>
+    <t>Davidson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Davidson. Thank you Chairman Forbes. Chairman Thornberry, Chairman Wittman, Ranking Member Courtney, Ranking Member Peters----</t>
   </si>
   <si>
@@ -194,6 +221,12 @@
   </si>
   <si>
     <t>400341</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Okay. Thank you, thank you all of you for being here.    Mr. Chairman, I yield back.</t>
@@ -608,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,7 +649,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,1589 +671,1832 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20792.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20792.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wittman</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
   </si>
   <si>
     <t>412193</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Courtney</t>
@@ -641,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,7 +658,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,1829 +683,1940 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>92</v>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
